--- a/开发任务排期.xlsx
+++ b/开发任务排期.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DA845-94A1-4DF3-9A22-F60DC2CF8780}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225AE478-804F-4E05-B702-8880C00917C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -108,6 +108,123 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -117,11 +234,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -436,35 +607,62 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E4"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:H4"/>
+    <mergeCell ref="I2:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
